--- a/dataFiles/myProfile/myProfile-Positive.xlsx
+++ b/dataFiles/myProfile/myProfile-Positive.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="102">
   <si>
     <t>Test ID</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Lastname</t>
   </si>
   <si>
-    <t>Phone number</t>
-  </si>
-  <si>
     <t>Employer name</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>Program</t>
   </si>
   <si>
-    <t>To verify the employee's selection for the 'Human Resources' mental health program."</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -103,18 +97,9 @@
     <t>Username</t>
   </si>
   <si>
-    <t>prabhaTest12#</t>
-  </si>
-  <si>
     <t>PrabhaFirstName</t>
   </si>
   <si>
-    <t>EmergencyFirstname</t>
-  </si>
-  <si>
-    <t>EmergencyLastname</t>
-  </si>
-  <si>
     <t>EmergencyCellNumber</t>
   </si>
   <si>
@@ -139,15 +124,9 @@
     <t>English</t>
   </si>
   <si>
-    <t>Single</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>18-03-2025</t>
-  </si>
-  <si>
     <t>Treatment Date</t>
   </si>
   <si>
@@ -160,7 +139,187 @@
     <t>prabhaautotcyd9427@mailinator.com</t>
   </si>
   <si>
+    <t>Home Phone number</t>
+  </si>
+  <si>
+    <t>Cell Number</t>
+  </si>
+  <si>
+    <t>TestFirstName</t>
+  </si>
+  <si>
+    <t>EmergencyFirstName</t>
+  </si>
+  <si>
+    <t>EmergencyLastName</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Postal code</t>
+  </si>
+  <si>
+    <t>78, Central Vista</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>A1A 1B1</t>
+  </si>
+  <si>
+    <t>Would you like to save new information before you leave the page?</t>
+  </si>
+  <si>
+    <t>Save changes text</t>
+  </si>
+  <si>
+    <t>Profile updated text</t>
+  </si>
+  <si>
+    <t>You have successfully updated your information.</t>
+  </si>
+  <si>
+    <t>Edit Gender</t>
+  </si>
+  <si>
+    <t>Edit Preferred Language</t>
+  </si>
+  <si>
+    <t>Edit Marital Status</t>
+  </si>
+  <si>
+    <t>Edit Children</t>
+  </si>
+  <si>
+    <t>Edit Reason for care</t>
+  </si>
+  <si>
+    <t>Edit Upcoming Treatment</t>
+  </si>
+  <si>
+    <t>Edit Treatment Date</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>2505561233</t>
+  </si>
+  <si>
+    <t>2505561244</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>prabhaTest@12#1</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
     <t>Elder Care</t>
+  </si>
+  <si>
+    <t>MyProfile_Positive_02</t>
+  </si>
+  <si>
+    <t>prabhaAutohzLW5080@mailinator.com</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>MyProfile_Positive_03</t>
+  </si>
+  <si>
+    <t>MyProfile_Positive_04</t>
+  </si>
+  <si>
+    <t>Chronic Disease</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>prabhaqvwq6769@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaAutojzoN1838@mailinator.com</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>5th, Lane</t>
+  </si>
+  <si>
+    <t>21, Mid Lane</t>
+  </si>
+  <si>
+    <t>A1A 1C1</t>
+  </si>
+  <si>
+    <t>A1A 1E1</t>
+  </si>
+  <si>
+    <t>Separated</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Prefer not to answer</t>
+  </si>
+  <si>
+    <t>To edit "My profile" of  Elder care program user."</t>
+  </si>
+  <si>
+    <t>To edit "My profile" of  Mental health program user."</t>
+  </si>
+  <si>
+    <t>To edit "My profile" of  Chronic program user."</t>
+  </si>
+  <si>
+    <t>To edit "My profile" of  Cancer program user."</t>
+  </si>
+  <si>
+    <t>21-03-2025</t>
+  </si>
+  <si>
+    <t>89, Cross street</t>
+  </si>
+  <si>
+    <t>A1A 1A1</t>
   </si>
 </sst>
 </file>
@@ -270,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,6 +466,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,31 +761,42 @@
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" customWidth="1"/>
-    <col min="22" max="22" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="23.5703125" customWidth="1"/>
+    <col min="22" max="22" width="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26" customWidth="1"/>
+    <col min="24" max="24" width="19" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,181 +806,661 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AF1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="AG1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="9" t="s">
+      <c r="AI1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="AG2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="R3" s="13">
+        <v>88</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="AD3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="AE3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" s="13">
+        <v>567</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>44</v>
+      <c r="AP4" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="M5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" s="13">
+        <v>983</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="Y5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="5">
-        <v>2505561233</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
+      <c r="Z5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="10" t="s">
+      <c r="AC5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>43</v>
+      <c r="AH5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 Z2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO5 AH2:AH5 C2:C5">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X5">
       <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC5 AJ2:AJ5">
       <formula1>"Male,Female,Non-Binary,Other,Unknown"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD5 AK2:AK5">
       <formula1>"English,French,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE5 AL2:AL5">
       <formula1>"Single,Married,Separated,Other,Divorced"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF5 AM2:AM5">
       <formula1>"Yes,No,Prefer not to answer"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>